--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H2">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I2">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J2">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N2">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q2">
-        <v>847.9627389549196</v>
+        <v>1011.212326797096</v>
       </c>
       <c r="R2">
-        <v>847.9627389549196</v>
+        <v>9100.910941173865</v>
       </c>
       <c r="S2">
-        <v>0.2888608399331791</v>
+        <v>0.2927599627611273</v>
       </c>
       <c r="T2">
-        <v>0.2888608399331791</v>
+        <v>0.2927599627611273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H3">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I3">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J3">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N3">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q3">
-        <v>84.03817481007027</v>
+        <v>107.6885102220022</v>
       </c>
       <c r="R3">
-        <v>84.03817481007027</v>
+        <v>969.19659199802</v>
       </c>
       <c r="S3">
-        <v>0.02862783545419298</v>
+        <v>0.03117731400906929</v>
       </c>
       <c r="T3">
-        <v>0.02862783545419298</v>
+        <v>0.03117731400906928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H4">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I4">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J4">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N4">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q4">
-        <v>52.50775091393902</v>
+        <v>59.19609523914755</v>
       </c>
       <c r="R4">
-        <v>52.50775091393902</v>
+        <v>532.764857152328</v>
       </c>
       <c r="S4">
-        <v>0.01788690980773028</v>
+        <v>0.01713808878567435</v>
       </c>
       <c r="T4">
-        <v>0.01788690980773028</v>
+        <v>0.01713808878567435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H5">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I5">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J5">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N5">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O5">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P5">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q5">
-        <v>761.9679752148545</v>
+        <v>817.1222576377199</v>
       </c>
       <c r="R5">
-        <v>761.9679752148545</v>
+        <v>7354.10031873948</v>
       </c>
       <c r="S5">
-        <v>0.2595664870770318</v>
+        <v>0.2365682017297123</v>
       </c>
       <c r="T5">
-        <v>0.2595664870770318</v>
+        <v>0.2365682017297123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H6">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I6">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J6">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N6">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P6">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q6">
-        <v>75.51557982335531</v>
+        <v>87.01899320487779</v>
       </c>
       <c r="R6">
-        <v>75.51557982335531</v>
+        <v>783.1709388439</v>
       </c>
       <c r="S6">
-        <v>0.02572459002467457</v>
+        <v>0.02519320278745238</v>
       </c>
       <c r="T6">
-        <v>0.02572459002467457</v>
+        <v>0.02519320278745238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H7">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I7">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J7">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N7">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O7">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P7">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q7">
-        <v>47.18276264861569</v>
+        <v>47.83411525288444</v>
       </c>
       <c r="R7">
-        <v>47.18276264861569</v>
+        <v>430.5070372759599</v>
       </c>
       <c r="S7">
-        <v>0.01607293790508351</v>
+        <v>0.01384863834136771</v>
       </c>
       <c r="T7">
-        <v>0.01607293790508351</v>
+        <v>0.01384863834136771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H8">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I8">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J8">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N8">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O8">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P8">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q8">
-        <v>464.2107153864527</v>
+        <v>551.9264293504081</v>
       </c>
       <c r="R8">
-        <v>464.2107153864527</v>
+        <v>4967.337864153672</v>
       </c>
       <c r="S8">
-        <v>0.158134657329137</v>
+        <v>0.1597903393991453</v>
       </c>
       <c r="T8">
-        <v>0.158134657329137</v>
+        <v>0.1597903393991453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H9">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I9">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J9">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N9">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P9">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q9">
-        <v>46.00605599301983</v>
+        <v>58.77710679927334</v>
       </c>
       <c r="R9">
-        <v>46.00605599301983</v>
+        <v>528.99396119346</v>
       </c>
       <c r="S9">
-        <v>0.01567208954550901</v>
+        <v>0.01701678583395556</v>
       </c>
       <c r="T9">
-        <v>0.01567208954550901</v>
+        <v>0.01701678583395556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H10">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I10">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J10">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N10">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O10">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P10">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q10">
-        <v>28.74496660682767</v>
+        <v>32.30962342034933</v>
       </c>
       <c r="R10">
-        <v>28.74496660682767</v>
+        <v>290.7866107831439</v>
       </c>
       <c r="S10">
-        <v>0.009792051957534019</v>
+        <v>0.009354083112621606</v>
       </c>
       <c r="T10">
-        <v>0.009792051957534019</v>
+        <v>0.009354083112621606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H11">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I11">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J11">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N11">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O11">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P11">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q11">
-        <v>454.2559147573829</v>
+        <v>584.515774327464</v>
       </c>
       <c r="R11">
-        <v>454.2559147573829</v>
+        <v>5260.641968947175</v>
       </c>
       <c r="S11">
-        <v>0.1547435271072779</v>
+        <v>0.1692254057734962</v>
       </c>
       <c r="T11">
-        <v>0.1547435271072779</v>
+        <v>0.1692254057734962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H12">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I12">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J12">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N12">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P12">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q12">
-        <v>45.01947576132685</v>
+        <v>62.24769147935334</v>
       </c>
       <c r="R12">
-        <v>45.01947576132685</v>
+        <v>560.22922331418</v>
       </c>
       <c r="S12">
-        <v>0.01533600827531129</v>
+        <v>0.01802156812821198</v>
       </c>
       <c r="T12">
-        <v>0.01533600827531129</v>
+        <v>0.01802156812821198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H13">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I13">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J13">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N13">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O13">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P13">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q13">
-        <v>28.12854306860319</v>
+        <v>34.21739483286132</v>
       </c>
       <c r="R13">
-        <v>28.12854306860319</v>
+        <v>307.956553495752</v>
       </c>
       <c r="S13">
-        <v>0.009582065583338425</v>
+        <v>0.009906409338165952</v>
       </c>
       <c r="T13">
-        <v>0.009582065583338425</v>
+        <v>0.009906409338165952</v>
       </c>
     </row>
   </sheetData>
